--- a/data/stat probs/chris boucher stat probs - condition.xlsx
+++ b/data/stat probs/chris boucher stat probs - condition.xlsx
@@ -21,18 +21,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0 before 2023 full" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bos 2023 full" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 regular" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cha 2023 full" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 regular" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 before 2023 full" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="28" state="visible" r:id="rId28"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
@@ -108,7 +108,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7 before 2023 full" sheetId="99" state="visible" r:id="rId99"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-170 after 2023 regular" sheetId="100" state="visible" r:id="rId100"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-170 after 2023 full" sheetId="101" state="visible" r:id="rId101"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="221 before 2023 postseason" sheetId="102" state="visible" r:id="rId102"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="223 before 2023 postseason" sheetId="102" state="visible" r:id="rId102"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="187 after 2023 postseason" sheetId="103" state="visible" r:id="rId103"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="187 after 2023 full" sheetId="104" state="visible" r:id="rId104"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="-170 before 2023 full" sheetId="105" state="visible" r:id="rId105"/>
@@ -592,28 +592,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1394,22 +1394,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2230,16 +2230,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2784,10 +2784,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -2914,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3044,10 +3044,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3168,22 +3168,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3586,22 +3586,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4004,28 +4004,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -4774,28 +4774,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -5476,1290 +5476,6 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>92</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>17</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>92</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>83</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>83</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F10" t="n">
-        <v>83</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>58</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>83</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>42</v>
-      </c>
-      <c r="D12" t="n">
-        <v>58</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>83</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>92</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>92</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>92</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>92</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>92</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>25</v>
-      </c>
-      <c r="H3" t="n">
-        <v>75</v>
-      </c>
-      <c r="I3" t="n">
-        <v>25</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>92</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>92</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>92</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8</v>
-      </c>
-      <c r="E6" t="n">
-        <v>83</v>
-      </c>
-      <c r="F6" t="n">
-        <v>17</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>92</v>
-      </c>
-      <c r="D7" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>83</v>
-      </c>
-      <c r="F7" t="n">
-        <v>17</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>83</v>
-      </c>
-      <c r="D8" t="n">
-        <v>17</v>
-      </c>
-      <c r="E8" t="n">
-        <v>50</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>17</v>
-      </c>
-      <c r="F10" t="n">
-        <v>83</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>42</v>
-      </c>
-      <c r="D11" t="n">
-        <v>58</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>83</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>42</v>
-      </c>
-      <c r="D12" t="n">
-        <v>58</v>
-      </c>
-      <c r="E12" t="n">
-        <v>17</v>
-      </c>
-      <c r="F12" t="n">
-        <v>83</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>33</v>
-      </c>
-      <c r="D13" t="n">
-        <v>67</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>92</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" t="n">
-        <v>92</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" t="n">
-        <v>83</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8</v>
-      </c>
-      <c r="F15" t="n">
-        <v>92</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17</v>
-      </c>
-      <c r="D16" t="n">
-        <v>83</v>
-      </c>
-      <c r="E16" t="n">
-        <v>8</v>
-      </c>
-      <c r="F16" t="n">
-        <v>92</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>8</v>
-      </c>
-      <c r="D18" t="n">
-        <v>92</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>8</v>
-      </c>
-      <c r="D19" t="n">
-        <v>92</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6828,16 +5544,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6846,10 +5562,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -7145,7 +5861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7214,16 +5930,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7232,10 +5948,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -7531,7 +6247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7600,28 +6316,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -8325,6 +7041,1514 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>73</v>
+      </c>
+      <c r="H2" t="n">
+        <v>27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>39</v>
+      </c>
+      <c r="J2" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>94</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>73</v>
+      </c>
+      <c r="I3" t="n">
+        <v>61</v>
+      </c>
+      <c r="J3" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>94</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>92</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>84</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>88</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12</v>
+      </c>
+      <c r="E6" t="n">
+        <v>69</v>
+      </c>
+      <c r="F6" t="n">
+        <v>31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>86</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14</v>
+      </c>
+      <c r="E7" t="n">
+        <v>53</v>
+      </c>
+      <c r="F7" t="n">
+        <v>47</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>43</v>
+      </c>
+      <c r="F8" t="n">
+        <v>57</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>61</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>71</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>55</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45</v>
+      </c>
+      <c r="E10" t="n">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>53</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>14</v>
+      </c>
+      <c r="F11" t="n">
+        <v>86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>43</v>
+      </c>
+      <c r="D12" t="n">
+        <v>57</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>90</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>37</v>
+      </c>
+      <c r="D13" t="n">
+        <v>63</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>92</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31</v>
+      </c>
+      <c r="D14" t="n">
+        <v>69</v>
+      </c>
+      <c r="E14" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>96</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>96</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
+      </c>
+      <c r="D17" t="n">
+        <v>80</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>80</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>14</v>
+      </c>
+      <c r="D19" t="n">
+        <v>86</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" t="n">
+        <v>90</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>92</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>96</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>98</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>98</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>36</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J2" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55</v>
+      </c>
+      <c r="J3" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>82</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18</v>
+      </c>
+      <c r="H4" t="n">
+        <v>82</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>73</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>91</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27</v>
+      </c>
+      <c r="E6" t="n">
+        <v>64</v>
+      </c>
+      <c r="F6" t="n">
+        <v>36</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>73</v>
+      </c>
+      <c r="D7" t="n">
+        <v>27</v>
+      </c>
+      <c r="E7" t="n">
+        <v>55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>45</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>64</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36</v>
+      </c>
+      <c r="F8" t="n">
+        <v>64</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>73</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>91</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>36</v>
+      </c>
+      <c r="D11" t="n">
+        <v>64</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>36</v>
+      </c>
+      <c r="D12" t="n">
+        <v>64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>91</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>27</v>
+      </c>
+      <c r="D13" t="n">
+        <v>73</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>27</v>
+      </c>
+      <c r="D14" t="n">
+        <v>73</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>27</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>18</v>
+      </c>
+      <c r="D16" t="n">
+        <v>82</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9</v>
+      </c>
+      <c r="D17" t="n">
+        <v>91</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>9</v>
+      </c>
+      <c r="D19" t="n">
+        <v>91</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9</v>
+      </c>
+      <c r="D20" t="n">
+        <v>91</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" t="n">
+        <v>91</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>100</v>
       </c>
     </row>
@@ -8408,10 +8632,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -8464,808 +8688,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>94</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" t="n">
-        <v>100</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>27</v>
-      </c>
-      <c r="H3" t="n">
-        <v>73</v>
-      </c>
-      <c r="I3" t="n">
-        <v>61</v>
-      </c>
-      <c r="J3" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>94</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>90</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8</v>
-      </c>
-      <c r="H4" t="n">
-        <v>92</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25</v>
-      </c>
-      <c r="J4" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>84</v>
-      </c>
-      <c r="F5" t="n">
-        <v>16</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>88</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>69</v>
-      </c>
-      <c r="F6" t="n">
-        <v>31</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>86</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>53</v>
-      </c>
-      <c r="F7" t="n">
-        <v>47</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>75</v>
-      </c>
-      <c r="D8" t="n">
-        <v>25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>43</v>
-      </c>
-      <c r="F8" t="n">
-        <v>57</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>61</v>
-      </c>
-      <c r="D9" t="n">
-        <v>39</v>
-      </c>
-      <c r="E9" t="n">
-        <v>29</v>
-      </c>
-      <c r="F9" t="n">
-        <v>71</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55</v>
-      </c>
-      <c r="D10" t="n">
-        <v>45</v>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="n">
-        <v>80</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>53</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47</v>
-      </c>
-      <c r="E11" t="n">
-        <v>14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>86</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>43</v>
-      </c>
-      <c r="D12" t="n">
-        <v>57</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>90</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>37</v>
-      </c>
-      <c r="D13" t="n">
-        <v>63</v>
-      </c>
-      <c r="E13" t="n">
-        <v>8</v>
-      </c>
-      <c r="F13" t="n">
-        <v>92</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31</v>
-      </c>
-      <c r="D14" t="n">
-        <v>69</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>96</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>27</v>
-      </c>
-      <c r="D15" t="n">
-        <v>73</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>96</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>22</v>
-      </c>
-      <c r="D16" t="n">
-        <v>78</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20</v>
-      </c>
-      <c r="D17" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>20</v>
-      </c>
-      <c r="D18" t="n">
-        <v>80</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>14</v>
-      </c>
-      <c r="D19" t="n">
-        <v>86</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>18</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" t="n">
-        <v>90</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>100</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>19</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8</v>
-      </c>
-      <c r="D21" t="n">
-        <v>92</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>100</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4</v>
-      </c>
-      <c r="D22" t="n">
-        <v>96</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>100</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>100</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>21</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2</v>
-      </c>
-      <c r="D23" t="n">
-        <v>98</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>100</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="n">
-        <v>2</v>
-      </c>
-      <c r="D24" t="n">
-        <v>98</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>100</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>100</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9334,28 +8756,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -9963,6 +9385,776 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>25</v>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25</v>
+      </c>
+      <c r="H3" t="n">
+        <v>75</v>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+      <c r="J3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>75</v>
+      </c>
+      <c r="I4" t="n">
+        <v>25</v>
+      </c>
+      <c r="J4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>50</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>50</v>
+      </c>
+      <c r="F6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50</v>
+      </c>
+      <c r="F7" t="n">
+        <v>50</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>75</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25</v>
+      </c>
+      <c r="F9" t="n">
+        <v>75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>75</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>75</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>25</v>
+      </c>
+      <c r="D17" t="n">
+        <v>75</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25</v>
+      </c>
+      <c r="D18" t="n">
+        <v>75</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>25</v>
+      </c>
+      <c r="D20" t="n">
+        <v>75</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>75</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>100</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -9977,7 +10169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10040,28 +10232,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10072,10 +10264,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -10084,16 +10276,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="I3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -10104,28 +10296,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -10136,16 +10328,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -10154,10 +10346,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -10168,16 +10360,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -10200,16 +10392,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10232,16 +10424,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10264,16 +10456,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -10296,16 +10488,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -10328,16 +10520,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -10360,16 +10552,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -10392,10 +10584,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10424,10 +10616,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -10456,10 +10648,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -10488,10 +10680,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -10520,10 +10712,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -10552,10 +10744,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -10584,10 +10776,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -10616,10 +10808,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D20" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -10648,10 +10840,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D21" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -10669,6 +10861,70 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>25</v>
+      </c>
+      <c r="D22" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>100</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="n">
+        <v>75</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -10746,28 +11002,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -10790,16 +11046,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -10816,22 +11072,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -10848,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -10860,10 +11116,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -10880,10 +11136,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -10912,10 +11168,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -10938,16 +11194,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -10970,16 +11226,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -11002,16 +11258,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -11034,16 +11290,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -11066,16 +11322,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -11098,16 +11354,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -11130,16 +11386,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -11162,16 +11418,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -11194,16 +11450,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -11226,10 +11482,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -11258,10 +11514,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -11290,10 +11546,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -11322,10 +11578,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -11354,10 +11610,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -11386,10 +11642,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -11418,10 +11674,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -11516,28 +11772,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -11560,16 +11816,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H3" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -11586,22 +11842,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="I4" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
@@ -11618,10 +11874,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -11630,10 +11886,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6">
@@ -11650,10 +11906,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -11682,10 +11938,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -11708,16 +11964,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E8" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -11740,16 +11996,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F9" t="n">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -11772,16 +12028,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -11804,16 +12060,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -11836,16 +12092,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -11868,16 +12124,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -11900,16 +12156,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -11932,16 +12188,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -11964,16 +12220,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D16" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -11996,10 +12252,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12028,10 +12284,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12060,10 +12316,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12092,10 +12348,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12124,10 +12380,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12156,10 +12412,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D22" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12188,10 +12444,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D23" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -12286,28 +12542,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -12318,10 +12574,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -12330,16 +12586,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I3" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -12350,28 +12606,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -12382,16 +12638,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -12400,10 +12656,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -12414,16 +12670,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -12446,16 +12702,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -12478,16 +12734,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -12510,16 +12766,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -12542,16 +12798,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -12574,16 +12830,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -12606,16 +12862,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -12638,16 +12894,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -12670,16 +12926,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -12702,16 +12958,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -12734,16 +12990,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -12766,10 +13022,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -12798,10 +13054,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -12830,10 +13086,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -12862,10 +13118,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -12894,10 +13150,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12926,10 +13182,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -12958,10 +13214,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13056,28 +13312,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -13088,10 +13344,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>100</v>
@@ -13100,16 +13356,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I3" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -13120,28 +13376,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J4" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -13152,16 +13408,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -13170,10 +13426,10 @@
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -13184,16 +13440,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -13216,16 +13472,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E7" t="n">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -13248,16 +13504,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D8" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -13280,16 +13536,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -13312,16 +13568,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E10" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -13344,16 +13600,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -13376,16 +13632,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -13408,16 +13664,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -13440,16 +13696,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -13472,16 +13728,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -13504,16 +13760,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -13536,10 +13792,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -13568,10 +13824,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -13600,10 +13856,10 @@
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -13632,10 +13888,10 @@
         <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -13664,10 +13920,10 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -13696,10 +13952,10 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -13728,10 +13984,10 @@
         <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -13826,28 +14082,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14340,28 +14596,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -14854,28 +15110,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -15656,28 +15912,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -16458,28 +16714,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -17260,28 +17516,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -17838,28 +18094,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -18416,28 +18672,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19058,28 +19314,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19700,28 +19956,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20182,28 +20438,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -20664,28 +20920,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -21402,28 +21658,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -22140,16 +22396,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22158,10 +22414,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -22846,28 +23102,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23648,16 +23904,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -23666,10 +23922,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -24354,28 +24610,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24612,28 +24868,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24870,22 +25126,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -25608,22 +25864,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -26346,16 +26602,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26636,16 +26892,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -26926,16 +27182,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27216,16 +27472,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27506,16 +27762,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -27524,10 +27780,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28122,10 +28378,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28246,16 +28502,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -28264,10 +28520,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -28856,22 +29112,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29114,22 +29370,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -29372,16 +29628,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29390,10 +29646,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29918,16 +30174,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29936,10 +30192,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -30464,28 +30720,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -30856,10 +31112,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -30980,28 +31236,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -31366,16 +31622,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31656,16 +31912,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31946,28 +32202,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -32748,28 +33004,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33134,28 +33390,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -33520,28 +33776,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33906,28 +34162,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -34292,28 +34548,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34806,28 +35062,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -35320,16 +35576,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -35834,16 +36090,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36348,16 +36604,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36366,10 +36622,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36958,16 +37214,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -36976,10 +37232,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37568,28 +37824,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -38338,28 +38594,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39012,28 +39268,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39686,28 +39942,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40328,28 +40584,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -40970,16 +41226,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -40988,10 +41244,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -41420,16 +41676,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41438,10 +41694,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -41870,28 +42126,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42320,28 +42576,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -42770,28 +43026,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43188,28 +43444,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -43606,28 +43862,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -44376,16 +44632,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -44394,10 +44650,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -44922,16 +45178,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -44940,10 +45196,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -45468,16 +45724,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -45486,10 +45742,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -46078,16 +46334,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -46096,10 +46352,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -46688,28 +46944,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -47234,28 +47490,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -47780,28 +48036,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48294,28 +48550,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48814,10 +49070,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49008,10 +49264,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49196,22 +49452,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49614,16 +49870,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49808,16 +50064,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -50002,28 +50258,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -50612,28 +50868,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -51222,28 +51478,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -52024,28 +52280,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -52826,16 +53082,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -53436,16 +53692,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54046,28 +54302,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -54624,28 +54880,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
